--- a/team roster.xlsx
+++ b/team roster.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\osu_refbot1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2CFF93-D236-498F-9278-5C18BD17F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E0533-786E-4E60-B856-4189D33EE48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1995" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Roster" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>dhui</t>
   </si>
@@ -237,12 +236,6 @@
     <t>上海B</t>
   </si>
   <si>
-    <t xml:space="preserve">Sustain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kongdyy </t>
-  </si>
-  <si>
     <t>上海C</t>
   </si>
   <si>
@@ -295,13 +288,94 @@
   </si>
   <si>
     <t>m u s e</t>
+  </si>
+  <si>
+    <t>Sustain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kongdyy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uukiNoTsubasa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you left</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -317,6 +391,26 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -341,11 +435,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:F20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:F22">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="队伍名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="参加赛事"/>
@@ -638,9 +734,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -804,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>42</v>
@@ -815,7 +913,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
@@ -824,14 +922,14 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
@@ -840,32 +938,32 @@
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>59</v>
@@ -880,12 +978,12 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -905,13 +1003,13 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -925,7 +1023,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -943,7 +1041,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
@@ -963,7 +1061,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>59</v>
@@ -981,7 +1079,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
@@ -1001,7 +1099,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>56</v>
@@ -1016,14 +1114,31 @@
         <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>